--- a/models/classifiers/feature_importances/feat_imp_classification/lightgbm_fragire18_feature_importances.xlsx
+++ b/models/classifiers/feature_importances/feat_imp_classification/lightgbm_fragire18_feature_importances.xlsx
@@ -452,47 +452,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FROP COM INTERPRETATION</t>
+          <t>RoliTronc_baseline</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RoliTronc_baseline</t>
+          <t>MFESCALE000_SQ007_</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ007_</t>
+          <t>FROP COM INTERPRETATION</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>SAPASDEMORAN_SQ003_</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
